--- a/biology/Botanique/Potalia/Potalia.xlsx
+++ b/biology/Botanique/Potalia/Potalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potalia est un genre d'arbuste néotropical, appartenant à la famille des Gentianaceae (anciennement Loganiaceae). Le genre Potalia compte 9 espèces. L'espèce type est Potalia amara Aubl..
-Ce genre a fait l'objet d'une révision taxonomique en 2004[2].
+Ce genre a fait l'objet d'une révision taxonomique en 2004.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (27 décembre 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (27 décembre 2021) :
 Potalia amara Aubl.
 Potalia chocoensis Struwe &amp; V.A. Albert
 Potalia coronata Struwe &amp; V.A. Albert
@@ -552,9 +566,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « POTALIA. (Tabula 151.)
 CAL. Perianthium monophyllum, turbinatum, craſſum, quadripartitum ; laciniis latis, coneavis, obtuſis, duabus oppoſitis, externis, &amp; duabus internis. 
 COR. monopetala, decem-fida, lobis oblongis, anguſtis, rigidis, apice incurvis, tubus breviſſimus, receptaculo piſtilli inſertus. 
